--- a/biology/Médecine/Douche_écossaise/Douche_écossaise.xlsx
+++ b/biology/Médecine/Douche_écossaise/Douche_écossaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Douche_%C3%A9cossaise</t>
+          <t>Douche_écossaise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une douche écossaise est une douche pendant laquelle on alterne eau chaude puis eau froide. Cette expression française date du XIXe siècle et fait référence à une hydrothérapie pratiquée alors en Écosse. Elle est censée activer la circulation sanguine et renforcer les vaisseaux sanguins (des jambes surtout).
-De cette technique est dérivé le bain écossais qui consiste à immerger alternativement une partie de son corps dans un seau d'eau froide et dans un seau d'eau chaude. Il s'agit d'un des moyens connus actuellement pour soigner l'algoneurodystrophie (syndrome douloureux régional complexe)[1],[2].
+De cette technique est dérivé le bain écossais qui consiste à immerger alternativement une partie de son corps dans un seau d'eau froide et dans un seau d'eau chaude. Il s'agit d'un des moyens connus actuellement pour soigner l'algoneurodystrophie (syndrome douloureux régional complexe),.
 Au sens figuré, vive alternance de sensations, d'événements ou d'impressions qui passent brutalement du positif au négatif.
 </t>
         </is>
